--- a/Programas/estructura paso.xlsx
+++ b/Programas/estructura paso.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Paso</t>
   </si>
@@ -42,96 +42,9 @@
     <t>F</t>
   </si>
   <si>
-    <t>DW110</t>
-  </si>
-  <si>
-    <t>DW120</t>
-  </si>
-  <si>
-    <t>ROTA</t>
-  </si>
-  <si>
-    <t>DW130</t>
-  </si>
-  <si>
-    <t>DW140</t>
-  </si>
-  <si>
-    <t>DW160</t>
-  </si>
-  <si>
-    <t>DW170</t>
-  </si>
-  <si>
-    <t>DW180</t>
-  </si>
-  <si>
-    <t>DW190</t>
-  </si>
-  <si>
-    <t>MANT</t>
-  </si>
-  <si>
-    <t>TEMP</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>Dir</t>
-  </si>
-  <si>
-    <t>Texto</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Plantilla</t>
-  </si>
-  <si>
     <t>FUNCION</t>
   </si>
   <si>
-    <t>h414D</t>
-  </si>
-  <si>
-    <t>h4554</t>
-  </si>
-  <si>
-    <t>h4946</t>
-  </si>
-  <si>
-    <t>h554D</t>
-  </si>
-  <si>
-    <t>h4441</t>
-  </si>
-  <si>
-    <t>h4544</t>
-  </si>
-  <si>
-    <t>h4C4C</t>
-  </si>
-  <si>
-    <t>h4F52</t>
-  </si>
-  <si>
-    <t>h4543</t>
-  </si>
-  <si>
-    <t>DW100</t>
-  </si>
-  <si>
-    <t>FUNC</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>DW150</t>
-  </si>
-  <si>
     <t>NUMERO</t>
   </si>
   <si>
@@ -141,15 +54,6 @@
     <t>ARGS</t>
   </si>
   <si>
-    <t>ALGO</t>
-  </si>
-  <si>
-    <t>TRAB</t>
-  </si>
-  <si>
-    <t>ENFR</t>
-  </si>
-  <si>
     <t>TEMPSALIDA</t>
   </si>
   <si>
@@ -187,6 +91,9 @@
   </si>
   <si>
     <t>TempSalida</t>
+  </si>
+  <si>
+    <t>PasoGrafica</t>
   </si>
 </sst>
 </file>
@@ -264,17 +171,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,7 +558,7 @@
   <dimension ref="A2:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -660,18 +567,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
@@ -707,7 +614,7 @@
     </row>
     <row r="4" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
@@ -724,7 +631,7 @@
     </row>
     <row r="5" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2">
@@ -743,7 +650,7 @@
     </row>
     <row r="6" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2">
@@ -755,39 +662,39 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
@@ -795,12 +702,14 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -808,7 +717,7 @@
     </row>
     <row r="9" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2">
@@ -818,10 +727,10 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -853,10 +762,10 @@
     </row>
     <row r="12" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -864,13 +773,13 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -898,306 +807,199 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>0</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="1"/>
-      <c r="H16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="1"/>
-      <c r="H17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="2" t="str">
-        <f>"h" &amp; DEC2HEX(CODE(MID(I17,2,1))) &amp; DEC2HEX(CODE(MID(I17,1,1)))</f>
-        <v>h5546</v>
-      </c>
-      <c r="K17" s="5">
-        <f t="shared" ref="K17:K20" si="0">HEX2DEC(SUBSTITUTE(J17,"h",""))</f>
-        <v>21830</v>
-      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>2</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="1"/>
-      <c r="H18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="5">
-        <f t="shared" si="0"/>
-        <v>17731</v>
-      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>3</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="1"/>
-      <c r="H19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="5">
-        <f t="shared" si="0"/>
-        <v>20306</v>
-      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>4</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="1"/>
-      <c r="H20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="5">
-        <f t="shared" si="0"/>
-        <v>19532</v>
-      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>5</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="1"/>
-      <c r="H21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="5">
-        <f>HEX2DEC(SUBSTITUTE(J21,"h",""))</f>
-        <v>17732</v>
-      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>6</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="1"/>
-      <c r="H22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" s="5">
-        <f t="shared" ref="K22:K28" si="1">HEX2DEC(SUBSTITUTE(J22,"h",""))</f>
-        <v>17473</v>
-      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>7</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="1"/>
-      <c r="H23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="5">
-        <f t="shared" si="1"/>
-        <v>21837</v>
-      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>8</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="1"/>
-      <c r="H24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" s="5">
-        <f t="shared" si="1"/>
-        <v>18758</v>
-      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>9</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="5">
-        <f t="shared" si="1"/>
-        <v>17748</v>
-      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="5">
-        <f t="shared" si="1"/>
-        <v>16717</v>
-      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
       <c r="I27" s="6"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="2"/>
       <c r="I28" s="6"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="K28" s="5"/>
     </row>
     <row r="29" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1209,9 +1011,9 @@
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1223,9 +1025,9 @@
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1235,11 +1037,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="H15:K15"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
@@ -1248,12 +1051,11 @@
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
@@ -1279,7 +1081,7 @@
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">

--- a/Programas/estructura paso.xlsx
+++ b/Programas/estructura paso.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Paso</t>
   </si>
@@ -108,7 +108,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +125,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -155,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,16 +177,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -558,7 +567,7 @@
   <dimension ref="A2:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -567,30 +576,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2">
+      <c r="B3" s="11">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="11">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="11">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="11">
         <v>3</v>
       </c>
       <c r="F3" s="2">
@@ -616,12 +625,12 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -633,12 +642,12 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -652,12 +661,12 @@
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11">
         <v>3</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -673,35 +682,37 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11">
         <v>5</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
@@ -719,12 +730,12 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11">
         <v>6</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
         <v>20</v>
@@ -737,10 +748,10 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -749,10 +760,10 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -761,14 +772,14 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -807,26 +818,26 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>0</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="1"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -837,9 +848,9 @@
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="1"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -850,9 +861,9 @@
       <c r="B18" s="2">
         <v>2</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="1"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -863,9 +874,9 @@
       <c r="B19" s="2">
         <v>3</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="1"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -876,9 +887,9 @@
       <c r="B20" s="2">
         <v>4</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="1"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -889,9 +900,9 @@
       <c r="B21" s="2">
         <v>5</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="1"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -902,9 +913,9 @@
       <c r="B22" s="2">
         <v>6</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="1"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -915,9 +926,9 @@
       <c r="B23" s="2">
         <v>7</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="1"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -928,9 +939,9 @@
       <c r="B24" s="2">
         <v>8</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="1"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -941,9 +952,9 @@
       <c r="B25" s="2">
         <v>9</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
@@ -955,9 +966,9 @@
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="2"/>
@@ -969,9 +980,9 @@
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
@@ -983,9 +994,9 @@
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="2"/>
@@ -997,9 +1008,9 @@
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1011,9 +1022,9 @@
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1025,9 +1036,9 @@
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1037,12 +1048,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
@@ -1051,11 +1061,12 @@
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="H15:K15"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>

--- a/Programas/estructura paso.xlsx
+++ b/Programas/estructura paso.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hh\sec-challenge\Programas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="211"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7320" tabRatio="211"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Paso</t>
   </si>
@@ -42,24 +45,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>FUNCION</t>
-  </si>
-  <si>
-    <t>NUMERO</t>
-  </si>
-  <si>
-    <t>PASO</t>
-  </si>
-  <si>
-    <t>ARGS</t>
-  </si>
-  <si>
-    <t>TEMPSALIDA</t>
-  </si>
-  <si>
-    <t>TEMPENTRADA</t>
-  </si>
-  <si>
     <t>Fin</t>
   </si>
   <si>
@@ -94,12 +79,42 @@
   </si>
   <si>
     <t>PasoGrafica</t>
+  </si>
+  <si>
+    <t>Humedad</t>
+  </si>
+  <si>
+    <t>No.Paso</t>
+  </si>
+  <si>
+    <t>D170</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>D160</t>
+  </si>
+  <si>
+    <t>D120</t>
+  </si>
+  <si>
+    <t>D140</t>
+  </si>
+  <si>
+    <t>Copia7</t>
+  </si>
+  <si>
+    <t>Copia5</t>
+  </si>
+  <si>
+    <t>Copia4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -161,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,12 +184,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -183,13 +197,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -270,6 +288,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -317,7 +338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,7 +373,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,237 +585,352 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K31"/>
+  <dimension ref="A2:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="1024" width="11.5703125"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="11">
+      <c r="F3" s="4">
         <v>3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>5</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>6</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>7</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>8</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11">
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11">
+      <c r="L4" s="2"/>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11">
+      <c r="N5" s="2">
+        <v>2</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11">
+      <c r="L6" s="2"/>
+      <c r="N6" s="2">
+        <v>3</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="N7" s="2">
+        <v>4</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11">
+      <c r="D8" s="4">
         <v>5</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11">
+      <c r="L8" s="2"/>
+      <c r="N8" s="2">
+        <v>5</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4">
         <v>6</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="N9" s="2">
+        <v>6</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="N10" s="2">
+        <v>7</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="N11" s="2">
+        <v>8</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="N12" s="2">
+        <v>9</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -804,269 +940,230 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="N13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="1"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G15" s="1"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="1"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="1"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="1"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
-        <v>3</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="1"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2">
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="1"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="2">
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="1"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2">
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="7:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="1"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2">
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="7:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="2">
-        <v>8</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="1"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="2">
-        <v>9</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="1"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="7:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="7:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="7:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="7:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="1"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="7:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="1"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="7:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="1"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="7:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G25" s="1"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="1"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="7:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G26" s="1"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="1"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="7:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G27" s="1"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="1"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="7:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G28" s="1"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="1"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="7:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="1"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="7:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="2:11" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="1"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="7:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="I15:L15"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
@@ -1075,124 +1172,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:J8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1025" width="11.5703125"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" t="str">
-        <f>MID($B$4,1,2)</f>
-        <v>FU</v>
-      </c>
-      <c r="C7" t="str">
-        <f>MID($B$4,3,2)</f>
-        <v>NC</v>
-      </c>
-      <c r="D7" t="str">
-        <f>MID($B$4,5,2)</f>
-        <v>IO</v>
-      </c>
-      <c r="E7" t="str">
-        <f>MID($B$4,7,2)</f>
-        <v>N</v>
-      </c>
-      <c r="F7" t="str">
-        <f>MID($B$4,9,2)</f>
-        <v/>
-      </c>
-      <c r="G7" t="str">
-        <f>MID($B$4,11,2)</f>
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <f>MID($B$4,13,2)</f>
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <f>MID($B$4,15,2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" t="str">
-        <f>"h" &amp; DEC2HEX(CODE(MID(B7,2,1))) &amp; DEC2HEX(CODE(MID(B7,1,1)))</f>
-        <v>h5546</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" ref="C8:J8" si="0">"h" &amp; DEC2HEX(CODE(MID(C7,2,1))) &amp; DEC2HEX(CODE(MID(C7,1,1)))</f>
-        <v>h434E</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>h4F49</v>
-      </c>
-      <c r="E8" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F8" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G8" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H8" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I8" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J8" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1025" width="11.5703125"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>